--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed5/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.60930000000001</v>
+        <v>12.421</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.158</v>
+        <v>12.28470000000001</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.71319999999999</v>
+        <v>-8.711199999999986</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -635,13 +635,13 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.851299999999996</v>
+        <v>5.632799999999995</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.456800000000001</v>
+        <v>-7.956499999999997</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.548999999999998</v>
+        <v>-8.508399999999996</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.9163</v>
+        <v>13.0717</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.75890000000001</v>
+        <v>12.69890000000001</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.034899999999999</v>
+        <v>-8.127999999999993</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.84529999999999</v>
+        <v>12.91629999999999</v>
       </c>
     </row>
     <row r="25">
